--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
         <v>1.33</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.89</v>
@@ -2227,7 +2227,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR8" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ11" t="n">
         <v>0.78</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.67</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR13" t="n">
         <v>2.01</v>
@@ -3535,7 +3535,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14" t="n">
         <v>0.96</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR19" t="n">
         <v>1.49</v>
@@ -5061,7 +5061,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR21" t="n">
         <v>1.09</v>
@@ -5276,7 +5276,7 @@
         <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ22" t="n">
         <v>0.78</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.22</v>
@@ -5933,7 +5933,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR25" t="n">
         <v>1.51</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR26" t="n">
         <v>1.86</v>
@@ -6369,7 +6369,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR27" t="n">
         <v>0.96</v>
@@ -7674,7 +7674,7 @@
         <v>1</v>
       </c>
       <c r="AP33" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.89</v>
@@ -7895,7 +7895,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR34" t="n">
         <v>1.46</v>
@@ -8546,10 +8546,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR37" t="n">
         <v>1.63</v>
@@ -8767,7 +8767,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR38" t="n">
         <v>1.54</v>
@@ -8982,10 +8982,10 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR39" t="n">
         <v>1.83</v>
@@ -9639,7 +9639,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.67</v>
@@ -10075,7 +10075,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.02</v>
@@ -10290,10 +10290,10 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10726,7 +10726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.67</v>
@@ -10944,7 +10944,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.33</v>
@@ -11598,10 +11598,10 @@
         <v>1.5</v>
       </c>
       <c r="AP51" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR51" t="n">
         <v>2.2</v>
@@ -11819,7 +11819,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR52" t="n">
         <v>1.42</v>
@@ -12691,7 +12691,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>1.02</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.22</v>
@@ -13342,7 +13342,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.33</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.33</v>
@@ -13778,10 +13778,10 @@
         <v>1.4</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR61" t="n">
         <v>2.15</v>
@@ -13999,7 +13999,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.49</v>
@@ -14217,7 +14217,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR63" t="n">
         <v>1.12</v>
@@ -15304,10 +15304,10 @@
         <v>2.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR68" t="n">
         <v>1.42</v>
@@ -15522,10 +15522,10 @@
         <v>1.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ69" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR69" t="n">
         <v>1.52</v>
@@ -15958,7 +15958,7 @@
         <v>2.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.33</v>
@@ -16176,7 +16176,7 @@
         <v>0.4</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.22</v>
@@ -17269,7 +17269,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.25</v>
@@ -17487,7 +17487,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR78" t="n">
         <v>1.87</v>
@@ -18141,7 +18141,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ81" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR81" t="n">
         <v>1.28</v>
@@ -18574,7 +18574,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.33</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.67</v>
@@ -19010,7 +19010,7 @@
         <v>2.33</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ85" t="n">
         <v>2.33</v>
@@ -19449,7 +19449,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR87" t="n">
         <v>1.39</v>
@@ -19667,7 +19667,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -20103,7 +20103,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR90" t="n">
         <v>2.21</v>
@@ -20318,7 +20318,7 @@
         <v>1.29</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ91" t="n">
         <v>1</v>
@@ -20536,7 +20536,7 @@
         <v>2.14</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.33</v>
@@ -21190,7 +21190,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
         <v>0.78</v>
@@ -21847,7 +21847,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR98" t="n">
         <v>1.46</v>
@@ -22062,10 +22062,10 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ99" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR99" t="n">
         <v>1.42</v>
@@ -22283,7 +22283,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR100" t="n">
         <v>2.22</v>
@@ -22498,7 +22498,7 @@
         <v>1.13</v>
       </c>
       <c r="AP101" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AQ101" t="n">
         <v>1</v>
@@ -22934,7 +22934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AQ103" t="n">
         <v>0.78</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.89</v>
@@ -24027,7 +24027,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR108" t="n">
         <v>1.87</v>
@@ -24321,6 +24321,878 @@
       </c>
       <c r="BP109" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>7963618</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>19</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U110" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X110" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>7963617</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>46061.41666666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>19</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>2</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['58', '63']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['88']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X111" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>14.9</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>7963576</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>46061.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>19</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+      <c r="N112" t="n">
+        <v>3</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['83', '85']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>7963603</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>46061.58333333334</v>
+      </c>
+      <c r="F113" t="n">
+        <v>19</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN113" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO113" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BP113" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.9</v>
@@ -1791,7 +1791,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.9</v>
@@ -2881,7 +2881,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR15" t="n">
         <v>1.52</v>
@@ -4404,7 +4404,7 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18" t="n">
         <v>1.67</v>
@@ -5279,7 +5279,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>2.15</v>
@@ -6584,7 +6584,7 @@
         <v>1</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.67</v>
@@ -7459,7 +7459,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR32" t="n">
         <v>1.82</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.22</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
         <v>1.4</v>
@@ -9200,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.86</v>
@@ -10947,7 +10947,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ48" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR48" t="n">
         <v>1.75</v>
@@ -11383,7 +11383,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ50" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -11816,7 +11816,7 @@
         <v>0.75</v>
       </c>
       <c r="AP52" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ52" t="n">
         <v>1.2</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.67</v>
@@ -12909,7 +12909,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.31</v>
@@ -13563,7 +13563,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR60" t="n">
         <v>1.68</v>
@@ -14432,7 +14432,7 @@
         <v>1.2</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14650,7 +14650,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.89</v>
@@ -15743,7 +15743,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR70" t="n">
         <v>1.35</v>
@@ -16397,7 +16397,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ73" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR73" t="n">
         <v>0.97</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ74" t="n">
         <v>1</v>
@@ -17048,7 +17048,7 @@
         <v>0.67</v>
       </c>
       <c r="AP76" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ76" t="n">
         <v>0.89</v>
@@ -17923,7 +17923,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ80" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR80" t="n">
         <v>1.92</v>
@@ -18577,7 +18577,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR83" t="n">
         <v>1.52</v>
@@ -19446,7 +19446,7 @@
         <v>2.14</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.5</v>
@@ -20100,7 +20100,7 @@
         <v>0.86</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.2</v>
@@ -21193,7 +21193,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ95" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -21629,7 +21629,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ97" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR97" t="n">
         <v>1.32</v>
@@ -22280,7 +22280,7 @@
         <v>1.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.5</v>
@@ -22937,7 +22937,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ103" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR103" t="n">
         <v>1.66</v>
@@ -23155,7 +23155,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ104" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR104" t="n">
         <v>1.29</v>
@@ -24242,7 +24242,7 @@
         <v>1.88</v>
       </c>
       <c r="AP109" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AQ109" t="n">
         <v>1.67</v>
@@ -24478,7 +24478,7 @@
         <v>1</v>
       </c>
       <c r="AV110" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW110" t="n">
         <v>10</v>
@@ -24490,7 +24490,7 @@
         <v>11</v>
       </c>
       <c r="AZ110" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA110" t="n">
         <v>4</v>
@@ -25193,6 +25193,442 @@
       </c>
       <c r="BP113" t="n">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>7963608</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>46062.625</v>
+      </c>
+      <c r="F114" t="n">
+        <v>19</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3</v>
+      </c>
+      <c r="K114" t="n">
+        <v>3</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
+      <c r="M114" t="n">
+        <v>3</v>
+      </c>
+      <c r="N114" t="n">
+        <v>5</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['55', '76']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['19', '30', '34']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R114" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S114" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U114" t="n">
+        <v>3</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X114" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO114" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP114" t="n">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>7963575</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>46062.70833333334</v>
+      </c>
+      <c r="F115" t="n">
+        <v>19</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['86', '89']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R115" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="S115" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="T115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U115" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X115" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN115" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BO115" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP115" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -25347,13 +25347,13 @@
         <v>2.43</v>
       </c>
       <c r="AU114" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV114" t="n">
         <v>6</v>
       </c>
       <c r="AW114" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX114" t="n">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,7 +2445,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.89</v>
@@ -5715,7 +5715,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.92</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.67</v>
@@ -8331,7 +8331,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.89</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.5</v>
@@ -11165,7 +11165,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR49" t="n">
         <v>1.36</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
         <v>1</v>
@@ -13127,7 +13127,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -14214,7 +14214,7 @@
         <v>1.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.4</v>
@@ -16179,7 +16179,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR72" t="n">
         <v>2.06</v>
@@ -17266,7 +17266,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.2</v>
@@ -18359,7 +18359,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.16</v>
@@ -19882,7 +19882,7 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89" t="n">
         <v>1.67</v>
@@ -20975,7 +20975,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR94" t="n">
         <v>1.23</v>
@@ -21626,7 +21626,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.2</v>
@@ -22719,7 +22719,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="AR102" t="n">
         <v>1.52</v>
@@ -23806,7 +23806,7 @@
         <v>2.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.33</v>
@@ -25629,6 +25629,224 @@
       </c>
       <c r="BP115" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>7963614</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>46066.625</v>
+      </c>
+      <c r="F116" t="n">
+        <v>20</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>2</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['14', '27']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X116" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2" t="n">
         <v>1.5</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ5" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ9" t="n">
         <v>0.2</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.4</v>
@@ -3099,7 +3099,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR12" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>3</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.5</v>
@@ -3971,7 +3971,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ16" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR16" t="n">
         <v>1.27</v>
@@ -4407,7 +4407,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR18" t="n">
         <v>1.58</v>
@@ -4840,10 +4840,10 @@
         <v>1</v>
       </c>
       <c r="AP20" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.53</v>
@@ -5058,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.2</v>
@@ -5497,7 +5497,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR23" t="n">
         <v>1.89</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.9</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR28" t="n">
         <v>1.37</v>
@@ -6802,7 +6802,7 @@
         <v>0</v>
       </c>
       <c r="AP29" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
         <v>0.89</v>
@@ -7023,7 +7023,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR30" t="n">
         <v>1.23</v>
@@ -7238,10 +7238,10 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR31" t="n">
         <v>1.25</v>
@@ -7456,7 +7456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.2</v>
@@ -7892,7 +7892,7 @@
         <v>1.33</v>
       </c>
       <c r="AP34" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.9</v>
@@ -8113,7 +8113,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR35" t="n">
         <v>1.03</v>
@@ -9418,10 +9418,10 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR41" t="n">
         <v>1.4</v>
@@ -9857,7 +9857,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -10508,10 +10508,10 @@
         <v>2.33</v>
       </c>
       <c r="AP46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR46" t="n">
         <v>1.19</v>
@@ -10729,7 +10729,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR47" t="n">
         <v>1.49</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="AP49" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.2</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12034,7 +12034,7 @@
         <v>0.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.89</v>
@@ -12255,7 +12255,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR54" t="n">
         <v>2.17</v>
@@ -12473,7 +12473,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR55" t="n">
         <v>1.13</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR59" t="n">
         <v>1.56</v>
@@ -13996,7 +13996,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.2</v>
@@ -14435,7 +14435,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR64" t="n">
         <v>1.39</v>
@@ -14868,10 +14868,10 @@
         <v>1.75</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR66" t="n">
         <v>1.91</v>
@@ -15086,10 +15086,10 @@
         <v>1.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR67" t="n">
         <v>1.4</v>
@@ -15740,7 +15740,7 @@
         <v>0.4</v>
       </c>
       <c r="AP70" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ70" t="n">
         <v>1.2</v>
@@ -15961,7 +15961,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ71" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.7</v>
@@ -16615,7 +16615,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR74" t="n">
         <v>2.13</v>
@@ -16830,10 +16830,10 @@
         <v>1.6</v>
       </c>
       <c r="AP75" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="n">
         <v>1.31</v>
@@ -17484,7 +17484,7 @@
         <v>1</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ78" t="n">
         <v>1.4</v>
@@ -17702,10 +17702,10 @@
         <v>1.8</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ79" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR79" t="n">
         <v>1.39</v>
@@ -17920,7 +17920,7 @@
         <v>0.67</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ80" t="n">
         <v>1</v>
@@ -18138,7 +18138,7 @@
         <v>1</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.9</v>
@@ -18795,7 +18795,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR84" t="n">
         <v>1.36</v>
@@ -19013,7 +19013,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ85" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR85" t="n">
         <v>2.05</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.89</v>
@@ -19664,7 +19664,7 @@
         <v>1</v>
       </c>
       <c r="AP88" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.4</v>
@@ -19885,7 +19885,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR89" t="n">
         <v>1.23</v>
@@ -20321,7 +20321,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ91" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR91" t="n">
         <v>1.64</v>
@@ -20539,7 +20539,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ92" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR92" t="n">
         <v>1.4</v>
@@ -20754,10 +20754,10 @@
         <v>2.14</v>
       </c>
       <c r="AP93" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ93" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR93" t="n">
         <v>1.86</v>
@@ -20972,7 +20972,7 @@
         <v>0.29</v>
       </c>
       <c r="AP94" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ94" t="n">
         <v>0.2</v>
@@ -21411,7 +21411,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR96" t="n">
         <v>1.47</v>
@@ -22501,7 +22501,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ101" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR101" t="n">
         <v>2</v>
@@ -22716,7 +22716,7 @@
         <v>0.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.2</v>
@@ -23152,7 +23152,7 @@
         <v>1.13</v>
       </c>
       <c r="AP104" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="AQ104" t="n">
         <v>1.2</v>
@@ -23588,10 +23588,10 @@
         <v>1.75</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR106" t="n">
         <v>1.22</v>
@@ -23809,7 +23809,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ107" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AR107" t="n">
         <v>1.36</v>
@@ -24024,7 +24024,7 @@
         <v>1.13</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.2</v>
@@ -24245,7 +24245,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR109" t="n">
         <v>1.39</v>
@@ -25847,6 +25847,878 @@
       </c>
       <c r="BP116" t="n">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>7963577</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>46067.54166666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>20</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>2</v>
+      </c>
+      <c r="N117" t="n">
+        <v>3</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['72', '80']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X117" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>13.3</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>7963612</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>46068.41666666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>20</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>5</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U118" t="n">
+        <v>4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X118" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>7963613</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>46068.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>20</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>4</v>
+      </c>
+      <c r="K119" t="n">
+        <v>4</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>4</v>
+      </c>
+      <c r="N119" t="n">
+        <v>5</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['3', '8', '20', '39']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X119" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>18</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>7963609</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>46068.58333333334</v>
+      </c>
+      <c r="F120" t="n">
+        <v>20</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['2']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X120" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP120" t="n">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
         <v>2.2</v>
@@ -2009,7 +2009,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>3</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>1.2</v>
@@ -4189,7 +4189,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR17" t="n">
         <v>0</v>
@@ -6805,7 +6805,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR29" t="n">
         <v>1.01</v>
@@ -7677,7 +7677,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR33" t="n">
         <v>2.06</v>
@@ -8110,7 +8110,7 @@
         <v>3</v>
       </c>
       <c r="AP35" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.5</v>
@@ -10072,7 +10072,7 @@
         <v>1</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.9</v>
@@ -12037,7 +12037,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR53" t="n">
         <v>1.84</v>
@@ -12688,7 +12688,7 @@
         <v>2.4</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.5</v>
@@ -14653,7 +14653,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR65" t="n">
         <v>2.05</v>
@@ -16394,7 +16394,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ73" t="n">
         <v>1</v>
@@ -17051,7 +17051,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR76" t="n">
         <v>1.38</v>
@@ -18356,7 +18356,7 @@
         <v>0.33</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ82" t="n">
         <v>0.2</v>
@@ -19231,7 +19231,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR86" t="n">
         <v>1.41</v>
@@ -21408,7 +21408,7 @@
         <v>2</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ96" t="n">
         <v>1.8</v>
@@ -21844,7 +21844,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.4</v>
@@ -23373,7 +23373,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ105" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="AR105" t="n">
         <v>1.81</v>
@@ -26719,6 +26719,224 @@
       </c>
       <c r="BP120" t="n">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>7963615</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>46069.625</v>
+      </c>
+      <c r="F121" t="n">
+        <v>20</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="n">
+        <v>2</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>3</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['77', '84']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="R121" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V121" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X121" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN121" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BO121" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BP121" t="n">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.4</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12" t="n">
         <v>1.5</v>
@@ -3535,7 +3535,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR14" t="n">
         <v>0.96</v>
@@ -5715,7 +5715,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR24" t="n">
         <v>1.92</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25" t="n">
         <v>0.9</v>
@@ -6148,10 +6148,10 @@
         <v>3</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR26" t="n">
         <v>1.86</v>
@@ -7238,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="AP31" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ31" t="n">
         <v>2.2</v>
@@ -8331,7 +8331,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR36" t="n">
         <v>1.89</v>
@@ -8546,7 +8546,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ37" t="n">
         <v>1.4</v>
@@ -9418,7 +9418,7 @@
         <v>1</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.2</v>
@@ -9639,7 +9639,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR42" t="n">
         <v>1.28</v>
@@ -10293,7 +10293,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR45" t="n">
         <v>1.83</v>
@@ -10726,7 +10726,7 @@
         <v>2.33</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.8</v>
@@ -11165,7 +11165,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR49" t="n">
         <v>1.36</v>
@@ -11380,7 +11380,7 @@
         <v>1.33</v>
       </c>
       <c r="AP50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ50" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>2</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR56" t="n">
         <v>1.02</v>
@@ -13127,7 +13127,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR58" t="n">
         <v>1.51</v>
@@ -13342,7 +13342,7 @@
         <v>2.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ59" t="n">
         <v>2.2</v>
@@ -13996,7 +13996,7 @@
         <v>0.8</v>
       </c>
       <c r="AP62" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.2</v>
@@ -15307,7 +15307,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ68" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR68" t="n">
         <v>1.42</v>
@@ -15522,7 +15522,7 @@
         <v>1.17</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9</v>
@@ -16179,7 +16179,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR72" t="n">
         <v>2.06</v>
@@ -17702,7 +17702,7 @@
         <v>1.8</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79" t="n">
         <v>1.5</v>
@@ -18359,7 +18359,7 @@
         <v>2</v>
       </c>
       <c r="AQ82" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR82" t="n">
         <v>1.16</v>
@@ -18574,7 +18574,7 @@
         <v>0.83</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.2</v>
@@ -19228,7 +19228,7 @@
         <v>1</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.8</v>
@@ -19449,7 +19449,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR87" t="n">
         <v>1.39</v>
@@ -20975,7 +20975,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ94" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR94" t="n">
         <v>1.23</v>
@@ -21190,7 +21190,7 @@
         <v>0.57</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
         <v>1</v>
@@ -22283,7 +22283,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR100" t="n">
         <v>2.22</v>
@@ -22716,10 +22716,10 @@
         <v>0.25</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR102" t="n">
         <v>1.52</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.8</v>
@@ -24678,7 +24678,7 @@
         <v>1.33</v>
       </c>
       <c r="AP111" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ111" t="n">
         <v>1.2</v>
@@ -24899,7 +24899,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ112" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR112" t="n">
         <v>2</v>
@@ -25771,7 +25771,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ116" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="AR116" t="n">
         <v>1.39</v>
@@ -26422,7 +26422,7 @@
         <v>1.67</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ119" t="n">
         <v>1.8</v>
@@ -26937,6 +26937,442 @@
       </c>
       <c r="BP121" t="n">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>7963619</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>46073.625</v>
+      </c>
+      <c r="F122" t="n">
+        <v>21</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Nordsjælland</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Vejle</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="n">
+        <v>3</v>
+      </c>
+      <c r="M122" t="n">
+        <v>3</v>
+      </c>
+      <c r="N122" t="n">
+        <v>6</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>['35', '49', '63']</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>['65', '73', '89']</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R122" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S122" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="T122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="V122" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X122" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>5</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BN122" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BP122" t="n">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>7963566</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>46074.41666666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>21</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>OB</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>København</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="n">
+        <v>2</v>
+      </c>
+      <c r="N123" t="n">
+        <v>4</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['45', '46']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>['65', '90+7']</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="R123" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S123" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="T123" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U123" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V123" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X123" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="BN123" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BO123" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP123" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2224,7 +2224,7 @@
         <v>1</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ8" t="n">
         <v>0.9</v>
@@ -2663,7 +2663,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ17" t="n">
         <v>0.8</v>
@@ -4404,10 +4404,10 @@
         <v>0</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR18" t="n">
         <v>1.58</v>
@@ -4625,7 +4625,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR19" t="n">
         <v>1.49</v>
@@ -5279,7 +5279,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR22" t="n">
         <v>2.15</v>
@@ -5494,7 +5494,7 @@
         <v>1.5</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ23" t="n">
         <v>1.2</v>
@@ -6587,7 +6587,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR28" t="n">
         <v>1.37</v>
@@ -7020,7 +7020,7 @@
         <v>3</v>
       </c>
       <c r="AP30" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ30" t="n">
         <v>1.5</v>
@@ -8328,7 +8328,7 @@
         <v>0</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ36" t="n">
         <v>0.27</v>
@@ -8549,7 +8549,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR37" t="n">
         <v>1.63</v>
@@ -8767,7 +8767,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR38" t="n">
         <v>1.54</v>
@@ -8982,7 +8982,7 @@
         <v>0</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.2</v>
@@ -9200,10 +9200,10 @@
         <v>2</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR40" t="n">
         <v>1.86</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.45</v>
@@ -9857,7 +9857,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR43" t="n">
         <v>1.88</v>
@@ -10729,7 +10729,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR47" t="n">
         <v>1.49</v>
@@ -10944,7 +10944,7 @@
         <v>0.67</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ48" t="n">
         <v>1.2</v>
@@ -11383,7 +11383,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR50" t="n">
         <v>1.37</v>
@@ -11601,7 +11601,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR51" t="n">
         <v>2.2</v>
@@ -12252,7 +12252,7 @@
         <v>2</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.5</v>
@@ -12470,7 +12470,7 @@
         <v>1.5</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.2</v>
@@ -12909,7 +12909,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR57" t="n">
         <v>1.31</v>
@@ -13124,7 +13124,7 @@
         <v>0.25</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ58" t="n">
         <v>0.27</v>
@@ -14214,10 +14214,10 @@
         <v>1.2</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR63" t="n">
         <v>1.12</v>
@@ -14650,7 +14650,7 @@
         <v>0.8</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.8</v>
@@ -14871,7 +14871,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR66" t="n">
         <v>1.91</v>
@@ -15304,7 +15304,7 @@
         <v>2.5</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ68" t="n">
         <v>1.45</v>
@@ -16397,7 +16397,7 @@
         <v>2</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR73" t="n">
         <v>0.97</v>
@@ -16612,7 +16612,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.2</v>
@@ -16833,7 +16833,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR75" t="n">
         <v>1.31</v>
@@ -17266,7 +17266,7 @@
         <v>0.83</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.2</v>
@@ -17487,7 +17487,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ78" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR78" t="n">
         <v>1.87</v>
@@ -17923,7 +17923,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR80" t="n">
         <v>1.92</v>
@@ -18792,7 +18792,7 @@
         <v>2</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.5</v>
@@ -19667,7 +19667,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR88" t="n">
         <v>1.3</v>
@@ -19882,10 +19882,10 @@
         <v>1.83</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR89" t="n">
         <v>1.23</v>
@@ -20100,7 +20100,7 @@
         <v>0.86</v>
       </c>
       <c r="AP90" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ90" t="n">
         <v>1.2</v>
@@ -20536,7 +20536,7 @@
         <v>2.14</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ92" t="n">
         <v>2.2</v>
@@ -21193,7 +21193,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR95" t="n">
         <v>1.6</v>
@@ -21411,7 +21411,7 @@
         <v>2</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR96" t="n">
         <v>1.47</v>
@@ -21626,7 +21626,7 @@
         <v>1.14</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ97" t="n">
         <v>1.2</v>
@@ -21847,7 +21847,7 @@
         <v>2</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR98" t="n">
         <v>1.46</v>
@@ -22062,7 +22062,7 @@
         <v>0.88</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ99" t="n">
         <v>0.9</v>
@@ -22280,7 +22280,7 @@
         <v>1.88</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ100" t="n">
         <v>1.45</v>
@@ -22937,7 +22937,7 @@
         <v>1.7</v>
       </c>
       <c r="AQ103" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR103" t="n">
         <v>1.66</v>
@@ -23591,7 +23591,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ106" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR106" t="n">
         <v>1.22</v>
@@ -23806,7 +23806,7 @@
         <v>2.25</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ107" t="n">
         <v>2.2</v>
@@ -24460,10 +24460,10 @@
         <v>1.22</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AR110" t="n">
         <v>1.46</v>
@@ -25335,7 +25335,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ114" t="n">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR114" t="n">
         <v>1.32</v>
@@ -25550,7 +25550,7 @@
         <v>1.33</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AQ115" t="n">
         <v>1.2</v>
@@ -25768,7 +25768,7 @@
         <v>0.22</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116" t="n">
         <v>0.27</v>
@@ -26425,7 +26425,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR119" t="n">
         <v>1.51</v>
@@ -27315,13 +27315,13 @@
         <v>6</v>
       </c>
       <c r="AW123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX123" t="n">
         <v>7</v>
       </c>
       <c r="AY123" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ123" t="n">
         <v>13</v>
@@ -27373,6 +27373,660 @@
       </c>
       <c r="BP123" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>7963604</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>46075.41666666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>21</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Randers</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Fredericia</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2</v>
+      </c>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="n">
+        <v>2</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>['2', '64']</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R124" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S124" t="n">
+        <v>5</v>
+      </c>
+      <c r="T124" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U124" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="V124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="X124" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>4.88</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>17</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BN124" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO124" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BP124" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>7963579</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>46075.5</v>
+      </c>
+      <c r="F125" t="n">
+        <v>21</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Silkeborg</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Midtjylland</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1</v>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>4</v>
+      </c>
+      <c r="N125" t="n">
+        <v>4</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['29', '48', '66', '73']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="R125" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S125" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U125" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X125" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>5.28</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>5.78</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BN125" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BO125" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BP125" t="n">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>7963610</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>46075.58333333334</v>
+      </c>
+      <c r="F126" t="n">
+        <v>21</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>AGF</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Viborg</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="n">
+        <v>5</v>
+      </c>
+      <c r="M126" t="n">
+        <v>2</v>
+      </c>
+      <c r="N126" t="n">
+        <v>7</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['31', '57', '60', '64', '70']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['55', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="R126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S126" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="T126" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U126" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="V126" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X126" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BN126" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO126" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="BP126" t="n">
+        <v>1.39</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
+++ b/Bases_de_Dados/FootyStats/Denmark Superliga_20252026.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.8</v>
@@ -3317,7 +3317,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR13" t="n">
         <v>2.01</v>
@@ -4622,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ19" t="n">
         <v>1.27</v>
@@ -5061,7 +5061,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR21" t="n">
         <v>1.09</v>
@@ -5712,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ24" t="n">
         <v>0.27</v>
@@ -6369,7 +6369,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR27" t="n">
         <v>0.96</v>
@@ -8985,7 +8985,7 @@
         <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR39" t="n">
         <v>1.83</v>
@@ -9854,7 +9854,7 @@
         <v>2</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.91</v>
@@ -10290,7 +10290,7 @@
         <v>3</v>
       </c>
       <c r="AP45" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.45</v>
@@ -11819,7 +11819,7 @@
         <v>1.1</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR52" t="n">
         <v>1.42</v>
@@ -13560,7 +13560,7 @@
         <v>0.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60" t="n">
         <v>1.2</v>
@@ -13999,7 +13999,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR62" t="n">
         <v>1.49</v>
@@ -15958,7 +15958,7 @@
         <v>2.6</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ71" t="n">
         <v>2.2</v>
@@ -17269,7 +17269,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ77" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR77" t="n">
         <v>1.25</v>
@@ -20103,7 +20103,7 @@
         <v>2.27</v>
       </c>
       <c r="AQ90" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR90" t="n">
         <v>2.21</v>
@@ -20318,7 +20318,7 @@
         <v>1.29</v>
       </c>
       <c r="AP91" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ91" t="n">
         <v>1.2</v>
@@ -22934,7 +22934,7 @@
         <v>0.5</v>
       </c>
       <c r="AP103" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103" t="n">
         <v>1.18</v>
@@ -24027,7 +24027,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ108" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR108" t="n">
         <v>1.87</v>
@@ -24681,7 +24681,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ111" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AR111" t="n">
         <v>1.87</v>
@@ -25114,7 +25114,7 @@
         <v>0.89</v>
       </c>
       <c r="AP113" t="n">
-        <v>1.7</v>
+        <v>1.64</v>
       </c>
       <c r="AQ113" t="n">
         <v>0.9</v>
@@ -28027,6 +28027,224 @@
       </c>
       <c r="BP126" t="n">
         <v>1.39</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>7963578</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Denmark Superliga</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2025/2026</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>46076.625</v>
+      </c>
+      <c r="F127" t="n">
+        <v>21</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Brøndby</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>SønderjyskE</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>0</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T127" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U127" t="n">
+        <v>3</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X127" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BN127" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO127" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="BP127" t="n">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>
